--- a/Othes/Phone Service chalan list.xlsx
+++ b/Othes/Phone Service chalan list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -36,20 +36,60 @@
     <t xml:space="preserve"> Retailer Sign</t>
   </si>
   <si>
-    <t>No:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tulip-2 </t>
   </si>
   <si>
     <t>Madrasha Market, Bagha Bajar ,Rajshahi.</t>
+  </si>
+  <si>
+    <t>S.N</t>
+  </si>
+  <si>
+    <t>Checked By</t>
+  </si>
+  <si>
+    <t>Delivery By</t>
+  </si>
+  <si>
+    <t>Rahinul Islam Kabir</t>
+  </si>
+  <si>
+    <t>Distributor: Symphony Mobile(HandSet)</t>
+  </si>
+  <si>
+    <t>Business Manager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Imran Nazir Kabir        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                           </t>
+    </r>
+  </si>
+  <si>
+    <t>DSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,14 +98,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="33"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,9 +174,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -117,44 +185,53 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,6 +240,99 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="12563475"/>
+          <a:ext cx="1219200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="12573000"/>
+          <a:ext cx="1419225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,77 +620,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G27"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="42.75">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -528,8 +703,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -537,8 +714,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -546,8 +725,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -555,8 +736,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -564,8 +747,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -573,8 +758,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -582,8 +769,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -591,8 +780,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -600,8 +791,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -609,8 +802,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -618,8 +813,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -627,8 +824,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -636,8 +835,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -645,8 +846,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -654,8 +857,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -663,8 +868,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -672,8 +879,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -681,8 +890,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -690,8 +901,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -699,8 +912,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -708,8 +923,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -717,8 +934,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -726,8 +945,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -735,8 +956,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -744,8 +967,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -753,15 +978,66 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="24.95" customHeight="1"/>
-    <row r="32" spans="1:7" ht="24.95" customHeight="1"/>
+    <row r="31" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="F33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="F34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.95" customHeight="1"/>
+    <row r="36" spans="1:7" ht="30.95" customHeight="1"/>
+    <row r="37" spans="1:7" ht="30.95" customHeight="1"/>
+    <row r="38" spans="1:7" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0" top="0.75" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
